--- a/Documentation/Algorithm_visualization.xlsx
+++ b/Documentation/Algorithm_visualization.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapof\Documents\Programming\CUDA\AutocorrelationCUDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapof\Documents\Programming\CUDA\AutocorrelationCUDA\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD6FAE-DC69-40BE-A1CC-AB798155730C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B830E-B6AB-4463-8C5C-6FCFCB425AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BF659B9-C169-4CC0-B674-851CAAF167AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CTRL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Block size</t>
   </si>
   <si>
     <t>Max lag</t>
+  </si>
+  <si>
+    <t>Indent</t>
   </si>
 </sst>
 </file>
@@ -91,22 +94,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="12">
     <dxf>
       <font>
         <color auto="1"/>
       </font>
       <border>
-        <left/>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color rgb="FFFF0000"/>
         </right>
@@ -163,135 +172,12 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2D2D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6E6E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <border>
         <left/>
         <right/>
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left/>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -669,10 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F53B9BE-0B59-4692-BA19-ABA17783D14F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -681,4422 +568,4422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+      <c r="A1" s="3" t="str">
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(0)</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f t="shared" ref="B1:Q16" si="0">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(1)</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(2)</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(3)</v>
       </c>
       <c r="E1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(4)</v>
       </c>
       <c r="F1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(5)</v>
       </c>
       <c r="G1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(6)</v>
       </c>
       <c r="H1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(7)</v>
       </c>
       <c r="I1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(8)</v>
       </c>
       <c r="J1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(9)</v>
       </c>
       <c r="K1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(10)</v>
       </c>
       <c r="L1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(11)</v>
       </c>
       <c r="M1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(12)</v>
       </c>
       <c r="N1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(13)</v>
       </c>
       <c r="O1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(14)</v>
       </c>
       <c r="P1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(15)</v>
       </c>
       <c r="Q1" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(16)</v>
       </c>
       <c r="R1" s="1" t="str">
-        <f t="shared" ref="P1:AE16" si="1">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(17)</v>
       </c>
       <c r="S1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(18)</v>
       </c>
       <c r="T1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(19)</v>
       </c>
       <c r="U1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(20)</v>
       </c>
       <c r="V1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(21)</v>
       </c>
       <c r="W1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(22)</v>
       </c>
       <c r="X1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(23)</v>
       </c>
       <c r="Y1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(24)</v>
       </c>
       <c r="Z1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(25)</v>
       </c>
       <c r="AA1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(26)</v>
       </c>
       <c r="AB1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(27)</v>
       </c>
       <c r="AC1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(28)</v>
       </c>
       <c r="AD1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(29)</v>
       </c>
       <c r="AE1" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(30)</v>
       </c>
       <c r="AF1" s="1" t="str">
-        <f t="shared" ref="V1:AP13" si="2">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(31)</v>
       </c>
       <c r="AG1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(32)</v>
       </c>
       <c r="AH1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(33)</v>
       </c>
       <c r="AI1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(34)</v>
       </c>
       <c r="AJ1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(35)</v>
       </c>
       <c r="AK1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(36)</v>
       </c>
       <c r="AL1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(37)</v>
       </c>
       <c r="AM1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(38)</v>
       </c>
       <c r="AN1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(39)</v>
       </c>
       <c r="AO1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(40)</v>
       </c>
       <c r="AP1" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(41)</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:P26" si="3">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(1)</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(2)</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(3)</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(4)</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(5)</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(6)</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(7)</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(8)</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(9)</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(10)</v>
       </c>
       <c r="K2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(11)</v>
       </c>
       <c r="L2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(12)</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(13)</v>
       </c>
       <c r="N2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(14)</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(15)</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(16)</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(17)</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(18)</v>
       </c>
       <c r="S2" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(19)</v>
       </c>
       <c r="T2" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(20)</v>
       </c>
       <c r="U2" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(21)</v>
       </c>
       <c r="V2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(22)</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(23)</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(24)</v>
       </c>
       <c r="Y2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(25)</v>
       </c>
       <c r="Z2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(26)</v>
       </c>
       <c r="AA2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(27)</v>
       </c>
       <c r="AB2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(28)</v>
       </c>
       <c r="AC2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(29)</v>
       </c>
       <c r="AD2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(30)</v>
       </c>
       <c r="AE2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(31)</v>
       </c>
       <c r="AF2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(32)</v>
       </c>
       <c r="AG2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(33)</v>
       </c>
       <c r="AH2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(34)</v>
       </c>
       <c r="AI2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(35)</v>
       </c>
       <c r="AJ2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(36)</v>
       </c>
       <c r="AK2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(37)</v>
       </c>
       <c r="AL2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(38)</v>
       </c>
       <c r="AM2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(39)</v>
       </c>
       <c r="AN2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(40)</v>
       </c>
       <c r="AO2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(41)</v>
       </c>
       <c r="AP2" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(42)</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(2)</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(3)</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(4)</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(5)</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(6)</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(7)</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(8)</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(9)</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(10)</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(11)</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(12)</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(13)</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(14)</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(15)</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(16)</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(17)</v>
       </c>
       <c r="Q3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(18)</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(19)</v>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(20)</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(21)</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(22)</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(23)</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(24)</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(25)</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(26)</v>
       </c>
       <c r="Z3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(27)</v>
       </c>
       <c r="AA3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(28)</v>
       </c>
       <c r="AB3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(29)</v>
       </c>
       <c r="AC3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(30)</v>
       </c>
       <c r="AD3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(31)</v>
       </c>
       <c r="AE3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(32)</v>
       </c>
       <c r="AF3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(33)</v>
       </c>
       <c r="AG3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(34)</v>
       </c>
       <c r="AH3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(35)</v>
       </c>
       <c r="AI3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(36)</v>
       </c>
       <c r="AJ3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(37)</v>
       </c>
       <c r="AK3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(38)</v>
       </c>
       <c r="AL3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(39)</v>
       </c>
       <c r="AM3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(40)</v>
       </c>
       <c r="AN3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(41)</v>
       </c>
       <c r="AO3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(42)</v>
       </c>
       <c r="AP3" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(43)</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(3)</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(4)</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(5)</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(6)</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(7)</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(8)</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(9)</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(10)</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(11)</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(12)</v>
       </c>
       <c r="K4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(13)</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(14)</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(15)</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(16)</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(17)</v>
       </c>
       <c r="P4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(18)</v>
       </c>
       <c r="Q4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(19)</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(20)</v>
       </c>
       <c r="S4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(21)</v>
       </c>
       <c r="T4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(22)</v>
       </c>
       <c r="U4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(23)</v>
       </c>
       <c r="V4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(24)</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(25)</v>
       </c>
       <c r="X4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(26)</v>
       </c>
       <c r="Y4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(27)</v>
       </c>
       <c r="Z4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(28)</v>
       </c>
       <c r="AA4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(29)</v>
       </c>
       <c r="AB4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(30)</v>
       </c>
       <c r="AC4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(31)</v>
       </c>
       <c r="AD4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(32)</v>
       </c>
       <c r="AE4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(33)</v>
       </c>
       <c r="AF4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(34)</v>
       </c>
       <c r="AG4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(35)</v>
       </c>
       <c r="AH4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(36)</v>
       </c>
       <c r="AI4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(37)</v>
       </c>
       <c r="AJ4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(38)</v>
       </c>
       <c r="AK4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(39)</v>
       </c>
       <c r="AL4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(40)</v>
       </c>
       <c r="AM4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(41)</v>
       </c>
       <c r="AN4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(42)</v>
       </c>
       <c r="AO4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(43)</v>
       </c>
       <c r="AP4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(44)</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(4)</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(5)</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(6)</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(7)</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(8)</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(9)</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(10)</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(11)</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(12)</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(13)</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(14)</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(15)</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(16)</v>
       </c>
       <c r="N5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(17)</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(18)</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(19)</v>
       </c>
       <c r="Q5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(20)</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(21)</v>
       </c>
       <c r="S5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(22)</v>
       </c>
       <c r="T5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(23)</v>
       </c>
       <c r="U5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(24)</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(25)</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(26)</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(27)</v>
       </c>
       <c r="Y5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(28)</v>
       </c>
       <c r="Z5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(29)</v>
       </c>
       <c r="AA5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(30)</v>
       </c>
       <c r="AB5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(31)</v>
       </c>
       <c r="AC5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(32)</v>
       </c>
       <c r="AD5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(33)</v>
       </c>
       <c r="AE5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(34)</v>
       </c>
       <c r="AF5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(35)</v>
       </c>
       <c r="AG5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(36)</v>
       </c>
       <c r="AH5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(37)</v>
       </c>
       <c r="AI5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(38)</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(39)</v>
       </c>
       <c r="AK5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(40)</v>
       </c>
       <c r="AL5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(41)</v>
       </c>
       <c r="AM5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(42)</v>
       </c>
       <c r="AN5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(43)</v>
       </c>
       <c r="AO5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(44)</v>
       </c>
       <c r="AP5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(45)</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(5)</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(6)</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(7)</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(8)</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(9)</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(10)</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(11)</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(12)</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(13)</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(14)</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(15)</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(16)</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(17)</v>
       </c>
       <c r="N6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(18)</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(19)</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(20)</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(21)</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(22)</v>
       </c>
       <c r="S6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(23)</v>
       </c>
       <c r="T6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(24)</v>
       </c>
       <c r="U6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(25)</v>
       </c>
       <c r="V6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(26)</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(27)</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(28)</v>
       </c>
       <c r="Y6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(29)</v>
       </c>
       <c r="Z6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(30)</v>
       </c>
       <c r="AA6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(31)</v>
       </c>
       <c r="AB6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(32)</v>
       </c>
       <c r="AC6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(33)</v>
       </c>
       <c r="AD6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(34)</v>
       </c>
       <c r="AE6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(35)</v>
       </c>
       <c r="AF6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(36)</v>
       </c>
       <c r="AG6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(37)</v>
       </c>
       <c r="AH6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(38)</v>
       </c>
       <c r="AI6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(39)</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(40)</v>
       </c>
       <c r="AK6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(41)</v>
       </c>
       <c r="AL6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(42)</v>
       </c>
       <c r="AM6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(43)</v>
       </c>
       <c r="AN6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(44)</v>
       </c>
       <c r="AO6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(45)</v>
       </c>
       <c r="AP6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(46)</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(6)</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(7)</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(8)</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(9)</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(10)</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(11)</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(12)</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(13)</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(14)</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(15)</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(16)</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(17)</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(18)</v>
       </c>
       <c r="N7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(19)</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(20)</v>
       </c>
       <c r="P7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(21)</v>
       </c>
       <c r="Q7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(22)</v>
       </c>
       <c r="R7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(23)</v>
       </c>
       <c r="S7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(24)</v>
       </c>
       <c r="T7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(25)</v>
       </c>
       <c r="U7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(26)</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(27)</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(28)</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(29)</v>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(30)</v>
       </c>
       <c r="Z7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(31)</v>
       </c>
       <c r="AA7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(32)</v>
       </c>
       <c r="AB7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(33)</v>
       </c>
       <c r="AC7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(34)</v>
       </c>
       <c r="AD7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(35)</v>
       </c>
       <c r="AE7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(36)</v>
       </c>
       <c r="AF7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(37)</v>
       </c>
       <c r="AG7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(38)</v>
       </c>
       <c r="AH7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(39)</v>
       </c>
       <c r="AI7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(40)</v>
       </c>
       <c r="AJ7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(41)</v>
       </c>
       <c r="AK7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(42)</v>
       </c>
       <c r="AL7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(43)</v>
       </c>
       <c r="AM7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(44)</v>
       </c>
       <c r="AN7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(45)</v>
       </c>
       <c r="AO7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(46)</v>
       </c>
       <c r="AP7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(47)</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(7)</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(8)</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(9)</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(10)</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(11)</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(12)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(13)</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(14)</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(15)</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(16)</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(17)</v>
       </c>
       <c r="L8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(18)</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(19)</v>
       </c>
       <c r="N8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(20)</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(21)</v>
       </c>
       <c r="P8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(22)</v>
       </c>
       <c r="Q8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(23)</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(24)</v>
       </c>
       <c r="S8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(25)</v>
       </c>
       <c r="T8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(26)</v>
       </c>
       <c r="U8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(27)</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(28)</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(29)</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(30)</v>
       </c>
       <c r="Y8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(31)</v>
       </c>
       <c r="Z8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(32)</v>
       </c>
       <c r="AA8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(33)</v>
       </c>
       <c r="AB8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(34)</v>
       </c>
       <c r="AC8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(35)</v>
       </c>
       <c r="AD8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(36)</v>
       </c>
       <c r="AE8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(37)</v>
       </c>
       <c r="AF8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(38)</v>
       </c>
       <c r="AG8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(39)</v>
       </c>
       <c r="AH8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(40)</v>
       </c>
       <c r="AI8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(41)</v>
       </c>
       <c r="AJ8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(42)</v>
       </c>
       <c r="AK8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(43)</v>
       </c>
       <c r="AL8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(44)</v>
       </c>
       <c r="AM8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(45)</v>
       </c>
       <c r="AN8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(46)</v>
       </c>
       <c r="AO8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(47)</v>
       </c>
       <c r="AP8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(48)</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(8)</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(9)</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(10)</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(11)</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(12)</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(13)</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(14)</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(15)</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(16)</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(17)</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(18)</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(19)</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(20)</v>
       </c>
       <c r="N9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(21)</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(22)</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(23)</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(24)</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(25)</v>
       </c>
       <c r="S9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(26)</v>
       </c>
       <c r="T9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(27)</v>
       </c>
       <c r="U9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(28)</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(29)</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(30)</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(31)</v>
       </c>
       <c r="Y9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(32)</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(33)</v>
       </c>
       <c r="AA9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(34)</v>
       </c>
       <c r="AB9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(35)</v>
       </c>
       <c r="AC9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(36)</v>
       </c>
       <c r="AD9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(37)</v>
       </c>
       <c r="AE9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(38)</v>
       </c>
       <c r="AF9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(39)</v>
       </c>
       <c r="AG9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(40)</v>
       </c>
       <c r="AH9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(41)</v>
       </c>
       <c r="AI9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(42)</v>
       </c>
       <c r="AJ9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(43)</v>
       </c>
       <c r="AK9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(44)</v>
       </c>
       <c r="AL9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(45)</v>
       </c>
       <c r="AM9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(46)</v>
       </c>
       <c r="AN9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(47)</v>
       </c>
       <c r="AO9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(48)</v>
       </c>
       <c r="AP9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(49)</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(9)</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(10)</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(11)</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(12)</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(13)</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(14)</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(15)</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(16)</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(17)</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(18)</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(19)</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(20)</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(21)</v>
       </c>
       <c r="N10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(22)</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(23)</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(24)</v>
       </c>
       <c r="Q10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(25)</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(26)</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(27)</v>
       </c>
       <c r="T10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(28)</v>
       </c>
       <c r="U10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(29)</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(30)</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(31)</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(32)</v>
       </c>
       <c r="Y10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(33)</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(34)</v>
       </c>
       <c r="AA10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(35)</v>
       </c>
       <c r="AB10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(36)</v>
       </c>
       <c r="AC10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(37)</v>
       </c>
       <c r="AD10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(38)</v>
       </c>
       <c r="AE10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(39)</v>
       </c>
       <c r="AF10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(40)</v>
       </c>
       <c r="AG10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(41)</v>
       </c>
       <c r="AH10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(42)</v>
       </c>
       <c r="AI10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(43)</v>
       </c>
       <c r="AJ10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(44)</v>
       </c>
       <c r="AK10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(45)</v>
       </c>
       <c r="AL10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(46)</v>
       </c>
       <c r="AM10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(47)</v>
       </c>
       <c r="AN10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(48)</v>
       </c>
       <c r="AO10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(49)</v>
       </c>
       <c r="AP10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(50)</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(10)</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(11)</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(12)</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(13)</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(14)</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(15)</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(16)</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(17)</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(18)</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(19)</v>
       </c>
       <c r="K11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(20)</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(21)</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(22)</v>
       </c>
       <c r="N11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(23)</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(24)</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(25)</v>
       </c>
       <c r="Q11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(26)</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(27)</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(28)</v>
       </c>
       <c r="T11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(29)</v>
       </c>
       <c r="U11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(30)</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(31)</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(32)</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(33)</v>
       </c>
       <c r="Y11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(34)</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(35)</v>
       </c>
       <c r="AA11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(36)</v>
       </c>
       <c r="AB11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(37)</v>
       </c>
       <c r="AC11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(38)</v>
       </c>
       <c r="AD11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(39)</v>
       </c>
       <c r="AE11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(40)</v>
       </c>
       <c r="AF11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(41)</v>
       </c>
       <c r="AG11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(42)</v>
       </c>
       <c r="AH11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(43)</v>
       </c>
       <c r="AI11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(44)</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(45)</v>
       </c>
       <c r="AK11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(46)</v>
       </c>
       <c r="AL11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(47)</v>
       </c>
       <c r="AM11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(48)</v>
       </c>
       <c r="AN11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(49)</v>
       </c>
       <c r="AO11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(50)</v>
       </c>
       <c r="AP11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(51)</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(11)</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(12)</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(13)</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(14)</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(15)</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(16)</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(17)</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(18)</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(19)</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(20)</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(21)</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(22)</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(23)</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(24)</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(25)</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(26)</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(27)</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(28)</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(29)</v>
       </c>
       <c r="T12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(30)</v>
       </c>
       <c r="U12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(31)</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(32)</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(33)</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(34)</v>
       </c>
       <c r="Y12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(35)</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(36)</v>
       </c>
       <c r="AA12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(37)</v>
       </c>
       <c r="AB12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(38)</v>
       </c>
       <c r="AC12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(39)</v>
       </c>
       <c r="AD12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(40)</v>
       </c>
       <c r="AE12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(41)</v>
       </c>
       <c r="AF12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(42)</v>
       </c>
       <c r="AG12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(43)</v>
       </c>
       <c r="AH12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(44)</v>
       </c>
       <c r="AI12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(45)</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(46)</v>
       </c>
       <c r="AK12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(47)</v>
       </c>
       <c r="AL12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(48)</v>
       </c>
       <c r="AM12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(49)</v>
       </c>
       <c r="AN12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(50)</v>
       </c>
       <c r="AO12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(51)</v>
       </c>
       <c r="AP12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(52)</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(12)</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(13)</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(14)</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(15)</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(16)</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(17)</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(18)</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(19)</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(20)</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(21)</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(22)</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(23)</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(24)</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(25)</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(26)</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(27)</v>
       </c>
       <c r="Q13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(28)</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(29)</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(30)</v>
       </c>
       <c r="T13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(31)</v>
       </c>
       <c r="U13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(32)</v>
       </c>
       <c r="V13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(33)</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(34)</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(35)</v>
       </c>
       <c r="Y13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(36)</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(37)</v>
       </c>
       <c r="AA13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(38)</v>
       </c>
       <c r="AB13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(39)</v>
       </c>
       <c r="AC13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(40)</v>
       </c>
       <c r="AD13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(41)</v>
       </c>
       <c r="AE13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(42)</v>
       </c>
       <c r="AF13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(43)</v>
       </c>
       <c r="AG13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(44)</v>
       </c>
       <c r="AH13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(45)</v>
       </c>
       <c r="AI13" s="1" t="str">
-        <f t="shared" ref="V13:AP26" si="4">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(46)</v>
       </c>
       <c r="AJ13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(47)</v>
       </c>
       <c r="AK13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(48)</v>
       </c>
       <c r="AL13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(49)</v>
       </c>
       <c r="AM13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(50)</v>
       </c>
       <c r="AN13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(51)</v>
       </c>
       <c r="AO13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(52)</v>
       </c>
       <c r="AP13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(53)</v>
       </c>
     </row>
     <row r="14" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(13)</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(14)</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(15)</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(16)</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(17)</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(18)</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(19)</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(20)</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(21)</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(22)</v>
       </c>
       <c r="K14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(23)</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(24)</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(25)</v>
       </c>
       <c r="N14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(26)</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(27)</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(28)</v>
       </c>
       <c r="Q14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(29)</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(30)</v>
       </c>
       <c r="S14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(31)</v>
       </c>
       <c r="T14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(32)</v>
       </c>
       <c r="U14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(33)</v>
       </c>
       <c r="V14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(34)</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(35)</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(36)</v>
       </c>
       <c r="Y14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(37)</v>
       </c>
       <c r="Z14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(38)</v>
       </c>
       <c r="AA14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(39)</v>
       </c>
       <c r="AB14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(40)</v>
       </c>
       <c r="AC14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(41)</v>
       </c>
       <c r="AD14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(42)</v>
       </c>
       <c r="AE14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(43)</v>
       </c>
       <c r="AF14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(44)</v>
       </c>
       <c r="AG14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(45)</v>
       </c>
       <c r="AH14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(46)</v>
       </c>
       <c r="AI14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(47)</v>
       </c>
       <c r="AJ14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(48)</v>
       </c>
       <c r="AK14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(49)</v>
       </c>
       <c r="AL14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(50)</v>
       </c>
       <c r="AM14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(51)</v>
       </c>
       <c r="AN14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(52)</v>
       </c>
       <c r="AO14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(53)</v>
       </c>
       <c r="AP14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(54)</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(14)</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(15)</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(16)</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(17)</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(18)</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(19)</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(20)</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(21)</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(22)</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(23)</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(24)</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(25)</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(26)</v>
       </c>
       <c r="N15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(27)</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(28)</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(29)</v>
       </c>
       <c r="Q15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(30)</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(31)</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(32)</v>
       </c>
       <c r="T15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(33)</v>
       </c>
       <c r="U15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(34)</v>
       </c>
       <c r="V15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(35)</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(36)</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(37)</v>
       </c>
       <c r="Y15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(38)</v>
       </c>
       <c r="Z15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(39)</v>
       </c>
       <c r="AA15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(40)</v>
       </c>
       <c r="AB15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(41)</v>
       </c>
       <c r="AC15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(42)</v>
       </c>
       <c r="AD15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(43)</v>
       </c>
       <c r="AE15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(44)</v>
       </c>
       <c r="AF15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(45)</v>
       </c>
       <c r="AG15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(46)</v>
       </c>
       <c r="AH15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(47)</v>
       </c>
       <c r="AI15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(48)</v>
       </c>
       <c r="AJ15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(49)</v>
       </c>
       <c r="AK15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(50)</v>
       </c>
       <c r="AL15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(51)</v>
       </c>
       <c r="AM15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(52)</v>
       </c>
       <c r="AN15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(53)</v>
       </c>
       <c r="AO15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(54)</v>
       </c>
       <c r="AP15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(55)</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(15)</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(16)</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(17)</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(18)</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(19)</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(20)</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(21)</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(22)</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(23)</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(24)</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(25)</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(26)</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(27)</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(28)</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(29)</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(30)</v>
       </c>
       <c r="Q16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(31)</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(32)</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(33)</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(34)</v>
       </c>
       <c r="U16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(35)</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(36)</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(37)</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(38)</v>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(39)</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(40)</v>
       </c>
       <c r="AA16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(41)</v>
       </c>
       <c r="AB16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(42)</v>
       </c>
       <c r="AC16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(43)</v>
       </c>
       <c r="AD16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(44)</v>
       </c>
       <c r="AE16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(45)</v>
       </c>
       <c r="AF16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(46)</v>
       </c>
       <c r="AG16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(47)</v>
       </c>
       <c r="AH16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(48)</v>
       </c>
       <c r="AI16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(49)</v>
       </c>
       <c r="AJ16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(50)</v>
       </c>
       <c r="AK16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(51)</v>
       </c>
       <c r="AL16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(52)</v>
       </c>
       <c r="AM16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(53)</v>
       </c>
       <c r="AN16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(54)</v>
       </c>
       <c r="AO16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(55)</v>
       </c>
       <c r="AP16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(56)</v>
       </c>
     </row>
     <row r="17" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(16)</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(17)</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(18)</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(19)</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(20)</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(21)</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(22)</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(23)</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(24)</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(25)</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(26)</v>
       </c>
       <c r="L17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(27)</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(28)</v>
       </c>
       <c r="N17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(29)</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(30)</v>
       </c>
       <c r="P17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(31)</v>
       </c>
       <c r="Q17" s="1" t="str">
-        <f t="shared" ref="P17:AE26" si="5">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(32)</v>
       </c>
       <c r="R17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(33)</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(34)</v>
       </c>
       <c r="T17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(35)</v>
       </c>
       <c r="U17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(36)</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(37)</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(38)</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(39)</v>
       </c>
       <c r="Y17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(40)</v>
       </c>
       <c r="Z17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(41)</v>
       </c>
       <c r="AA17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(42)</v>
       </c>
       <c r="AB17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(43)</v>
       </c>
       <c r="AC17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(44)</v>
       </c>
       <c r="AD17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(45)</v>
       </c>
       <c r="AE17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(46)</v>
       </c>
       <c r="AF17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(47)</v>
       </c>
       <c r="AG17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(48)</v>
       </c>
       <c r="AH17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(49)</v>
       </c>
       <c r="AI17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(50)</v>
       </c>
       <c r="AJ17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(51)</v>
       </c>
       <c r="AK17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(52)</v>
       </c>
       <c r="AL17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(53)</v>
       </c>
       <c r="AM17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(54)</v>
       </c>
       <c r="AN17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(55)</v>
       </c>
       <c r="AO17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(56)</v>
       </c>
       <c r="AP17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(57)</v>
       </c>
     </row>
     <row r="18" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(17)</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(18)</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(19)</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(20)</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(21)</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(22)</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(23)</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(24)</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(25)</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(26)</v>
       </c>
       <c r="K18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(27)</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(28)</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(29)</v>
       </c>
       <c r="N18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(30)</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(31)</v>
       </c>
       <c r="P18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(32)</v>
       </c>
       <c r="Q18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(33)</v>
       </c>
       <c r="R18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(34)</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(35)</v>
       </c>
       <c r="T18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(36)</v>
       </c>
       <c r="U18" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(37)</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(38)</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(39)</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(40)</v>
       </c>
       <c r="Y18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(41)</v>
       </c>
       <c r="Z18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(42)</v>
       </c>
       <c r="AA18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(43)</v>
       </c>
       <c r="AB18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(44)</v>
       </c>
       <c r="AC18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(45)</v>
       </c>
       <c r="AD18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(46)</v>
       </c>
       <c r="AE18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(47)</v>
       </c>
       <c r="AF18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(48)</v>
       </c>
       <c r="AG18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(49)</v>
       </c>
       <c r="AH18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(50)</v>
       </c>
       <c r="AI18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(51)</v>
       </c>
       <c r="AJ18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(52)</v>
       </c>
       <c r="AK18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(53)</v>
       </c>
       <c r="AL18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(54)</v>
       </c>
       <c r="AM18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(55)</v>
       </c>
       <c r="AN18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(56)</v>
       </c>
       <c r="AO18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(57)</v>
       </c>
       <c r="AP18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(58)</v>
       </c>
     </row>
     <row r="19" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(18)</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(19)</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(20)</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(21)</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(22)</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(23)</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(24)</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(25)</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(26)</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(27)</v>
       </c>
       <c r="K19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(28)</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(29)</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(30)</v>
       </c>
       <c r="N19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(31)</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(32)</v>
       </c>
       <c r="P19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(33)</v>
       </c>
       <c r="Q19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(34)</v>
       </c>
       <c r="R19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(35)</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(36)</v>
       </c>
       <c r="T19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(37)</v>
       </c>
       <c r="U19" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(38)</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(39)</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(40)</v>
       </c>
       <c r="X19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(41)</v>
       </c>
       <c r="Y19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(42)</v>
       </c>
       <c r="Z19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(43)</v>
       </c>
       <c r="AA19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(44)</v>
       </c>
       <c r="AB19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(45)</v>
       </c>
       <c r="AC19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(46)</v>
       </c>
       <c r="AD19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(47)</v>
       </c>
       <c r="AE19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(48)</v>
       </c>
       <c r="AF19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(49)</v>
       </c>
       <c r="AG19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(50)</v>
       </c>
       <c r="AH19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(51)</v>
       </c>
       <c r="AI19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(52)</v>
       </c>
       <c r="AJ19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(53)</v>
       </c>
       <c r="AK19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(54)</v>
       </c>
       <c r="AL19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(55)</v>
       </c>
       <c r="AM19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(56)</v>
       </c>
       <c r="AN19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(57)</v>
       </c>
       <c r="AO19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(58)</v>
       </c>
       <c r="AP19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(59)</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(19)</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(20)</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(21)</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(22)</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(23)</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(24)</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(25)</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(26)</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(27)</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(28)</v>
       </c>
       <c r="K20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(29)</v>
       </c>
       <c r="L20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(30)</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(31)</v>
       </c>
       <c r="N20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(32)</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(33)</v>
       </c>
       <c r="P20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(34)</v>
       </c>
       <c r="Q20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(35)</v>
       </c>
       <c r="R20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(36)</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(37)</v>
       </c>
       <c r="T20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(38)</v>
       </c>
       <c r="U20" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(39)</v>
       </c>
       <c r="V20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(40)</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(41)</v>
       </c>
       <c r="X20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(42)</v>
       </c>
       <c r="Y20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(43)</v>
       </c>
       <c r="Z20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(44)</v>
       </c>
       <c r="AA20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(45)</v>
       </c>
       <c r="AB20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(46)</v>
       </c>
       <c r="AC20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(47)</v>
       </c>
       <c r="AD20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(48)</v>
       </c>
       <c r="AE20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(49)</v>
       </c>
       <c r="AF20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(50)</v>
       </c>
       <c r="AG20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(51)</v>
       </c>
       <c r="AH20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(52)</v>
       </c>
       <c r="AI20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(53)</v>
       </c>
       <c r="AJ20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(54)</v>
       </c>
       <c r="AK20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(55)</v>
       </c>
       <c r="AL20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(56)</v>
       </c>
       <c r="AM20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(57)</v>
       </c>
       <c r="AN20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(58)</v>
       </c>
       <c r="AO20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(59)</v>
       </c>
       <c r="AP20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(60)</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(20)</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(21)</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(22)</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(23)</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(24)</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(25)</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(26)</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(27)</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(28)</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(29)</v>
       </c>
       <c r="K21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(30)</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(31)</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(32)</v>
       </c>
       <c r="N21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(33)</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(34)</v>
       </c>
       <c r="P21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(35)</v>
       </c>
       <c r="Q21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(36)</v>
       </c>
       <c r="R21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(37)</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(38)</v>
       </c>
       <c r="T21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(39)</v>
       </c>
       <c r="U21" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(40)</v>
       </c>
       <c r="V21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(41)</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(42)</v>
       </c>
       <c r="X21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(43)</v>
       </c>
       <c r="Y21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(44)</v>
       </c>
       <c r="Z21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(45)</v>
       </c>
       <c r="AA21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(46)</v>
       </c>
       <c r="AB21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(47)</v>
       </c>
       <c r="AC21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(48)</v>
       </c>
       <c r="AD21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(49)</v>
       </c>
       <c r="AE21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(50)</v>
       </c>
       <c r="AF21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(51)</v>
       </c>
       <c r="AG21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(52)</v>
       </c>
       <c r="AH21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(53)</v>
       </c>
       <c r="AI21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(54)</v>
       </c>
       <c r="AJ21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(55)</v>
       </c>
       <c r="AK21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(56)</v>
       </c>
       <c r="AL21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(57)</v>
       </c>
       <c r="AM21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(58)</v>
       </c>
       <c r="AN21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(59)</v>
       </c>
       <c r="AO21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(60)</v>
       </c>
       <c r="AP21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(61)</v>
       </c>
     </row>
     <row r="22" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(21)</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(22)</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(23)</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(24)</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(25)</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(26)</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(27)</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(28)</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(29)</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(30)</v>
       </c>
       <c r="K22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(31)</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(32)</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(33)</v>
       </c>
       <c r="N22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(34)</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(35)</v>
       </c>
       <c r="P22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(36)</v>
       </c>
       <c r="Q22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(37)</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(38)</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(39)</v>
       </c>
       <c r="T22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(40)</v>
       </c>
       <c r="U22" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(41)</v>
       </c>
       <c r="V22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(42)</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(43)</v>
       </c>
       <c r="X22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(44)</v>
       </c>
       <c r="Y22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(45)</v>
       </c>
       <c r="Z22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(46)</v>
       </c>
       <c r="AA22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(47)</v>
       </c>
       <c r="AB22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(48)</v>
       </c>
       <c r="AC22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(49)</v>
       </c>
       <c r="AD22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(50)</v>
       </c>
       <c r="AE22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(51)</v>
       </c>
       <c r="AF22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(52)</v>
       </c>
       <c r="AG22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(53)</v>
       </c>
       <c r="AH22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(54)</v>
       </c>
       <c r="AI22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(55)</v>
       </c>
       <c r="AJ22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(56)</v>
       </c>
       <c r="AK22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(57)</v>
       </c>
       <c r="AL22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(58)</v>
       </c>
       <c r="AM22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(59)</v>
       </c>
       <c r="AN22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(60)</v>
       </c>
       <c r="AO22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(61)</v>
       </c>
       <c r="AP22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(62)</v>
       </c>
     </row>
     <row r="23" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(22)</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(23)</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(24)</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(25)</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(26)</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(27)</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(28)</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(29)</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(30)</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(31)</v>
       </c>
       <c r="K23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(32)</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(33)</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(34)</v>
       </c>
       <c r="N23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(35)</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(36)</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(37)</v>
       </c>
       <c r="Q23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(38)</v>
       </c>
       <c r="R23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(39)</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(40)</v>
       </c>
       <c r="T23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(41)</v>
       </c>
       <c r="U23" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(42)</v>
       </c>
       <c r="V23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(43)</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(44)</v>
       </c>
       <c r="X23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(45)</v>
       </c>
       <c r="Y23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(46)</v>
       </c>
       <c r="Z23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(47)</v>
       </c>
       <c r="AA23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(48)</v>
       </c>
       <c r="AB23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(49)</v>
       </c>
       <c r="AC23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(50)</v>
       </c>
       <c r="AD23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(51)</v>
       </c>
       <c r="AE23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(52)</v>
       </c>
       <c r="AF23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(53)</v>
       </c>
       <c r="AG23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(54)</v>
       </c>
       <c r="AH23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(55)</v>
       </c>
       <c r="AI23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(56)</v>
       </c>
       <c r="AJ23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(57)</v>
       </c>
       <c r="AK23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(58)</v>
       </c>
       <c r="AL23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(59)</v>
       </c>
       <c r="AM23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(60)</v>
       </c>
       <c r="AN23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(61)</v>
       </c>
       <c r="AO23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(62)</v>
       </c>
       <c r="AP23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(63)</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(23)</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(24)</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(25)</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(26)</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(27)</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(28)</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(29)</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(30)</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(31)</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(32)</v>
       </c>
       <c r="K24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(33)</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(34)</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(35)</v>
       </c>
       <c r="N24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(36)</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(37)</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(38)</v>
       </c>
       <c r="Q24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(39)</v>
       </c>
       <c r="R24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(40)</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(41)</v>
       </c>
       <c r="T24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(42)</v>
       </c>
       <c r="U24" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(43)</v>
       </c>
       <c r="V24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(44)</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(45)</v>
       </c>
       <c r="X24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(46)</v>
       </c>
       <c r="Y24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(47)</v>
       </c>
       <c r="Z24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(48)</v>
       </c>
       <c r="AA24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(49)</v>
       </c>
       <c r="AB24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(50)</v>
       </c>
       <c r="AC24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(51)</v>
       </c>
       <c r="AD24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(52)</v>
       </c>
       <c r="AE24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(53)</v>
       </c>
       <c r="AF24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(54)</v>
       </c>
       <c r="AG24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(55)</v>
       </c>
       <c r="AH24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(56)</v>
       </c>
       <c r="AI24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(57)</v>
       </c>
       <c r="AJ24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(58)</v>
       </c>
       <c r="AK24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(59)</v>
       </c>
       <c r="AL24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(60)</v>
       </c>
       <c r="AM24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(61)</v>
       </c>
       <c r="AN24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(62)</v>
       </c>
       <c r="AO24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(63)</v>
       </c>
       <c r="AP24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(64)</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
-        <f>"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(24)</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" ref="B25:Q26" si="6">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(25)</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(26)</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(27)</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(28)</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(29)</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(30)</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(31)</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(32)</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(33)</v>
       </c>
       <c r="K25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(34)</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(35)</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(36)</v>
       </c>
       <c r="N25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(37)</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(38)</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(39)</v>
       </c>
       <c r="Q25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(40)</v>
       </c>
       <c r="R25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(41)</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(42)</v>
       </c>
       <c r="T25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(43)</v>
       </c>
       <c r="U25" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(44)</v>
       </c>
       <c r="V25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(45)</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(46)</v>
       </c>
       <c r="X25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(47)</v>
       </c>
       <c r="Y25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(48)</v>
       </c>
       <c r="Z25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(49)</v>
       </c>
       <c r="AA25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(50)</v>
       </c>
       <c r="AB25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(51)</v>
       </c>
       <c r="AC25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(52)</v>
       </c>
       <c r="AD25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(53)</v>
       </c>
       <c r="AE25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(54)</v>
       </c>
       <c r="AF25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(55)</v>
       </c>
       <c r="AG25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(56)</v>
       </c>
       <c r="AH25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(57)</v>
       </c>
       <c r="AI25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(58)</v>
       </c>
       <c r="AJ25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(59)</v>
       </c>
       <c r="AK25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(60)</v>
       </c>
       <c r="AL25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(61)</v>
       </c>
       <c r="AM25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(62)</v>
       </c>
       <c r="AN25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(63)</v>
       </c>
       <c r="AO25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(64)</v>
       </c>
       <c r="AP25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(65)</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(0) * f(25)</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(1) * f(26)</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(2) * f(27)</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(3) * f(28)</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(4) * f(29)</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(5) * f(30)</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(6) * f(31)</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(7) * f(32)</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(8) * f(33)</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(9) * f(34)</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(10) * f(35)</v>
       </c>
       <c r="L26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(11) * f(36)</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(12) * f(37)</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(13) * f(38)</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(14) * f(39)</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(15) * f(40)</v>
       </c>
       <c r="Q26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(16) * f(41)</v>
       </c>
       <c r="R26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(17) * f(42)</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(18) * f(43)</v>
       </c>
       <c r="T26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(19) * f(44)</v>
       </c>
       <c r="U26" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(20) * f(45)</v>
       </c>
       <c r="V26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(21) * f(46)</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(22) * f(47)</v>
       </c>
       <c r="X26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(23) * f(48)</v>
       </c>
       <c r="Y26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(24) * f(49)</v>
       </c>
       <c r="Z26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(25) * f(50)</v>
       </c>
       <c r="AA26" s="1" t="str">
-        <f t="shared" ref="AA26:AP26" si="7">"f("&amp;COLUMN()-1 &amp; ") * f("&amp;COLUMN()-1+ROW()-1 &amp;")"</f>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(26) * f(51)</v>
       </c>
       <c r="AB26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(27) * f(52)</v>
       </c>
       <c r="AC26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(28) * f(53)</v>
       </c>
       <c r="AD26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(29) * f(54)</v>
       </c>
       <c r="AE26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(30) * f(55)</v>
       </c>
       <c r="AF26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(31) * f(56)</v>
       </c>
       <c r="AG26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(32) * f(57)</v>
       </c>
       <c r="AH26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(33) * f(58)</v>
       </c>
       <c r="AI26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(34) * f(59)</v>
       </c>
       <c r="AJ26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(35) * f(60)</v>
       </c>
       <c r="AK26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(36) * f(61)</v>
       </c>
       <c r="AL26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(37) * f(62)</v>
       </c>
       <c r="AM26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(38) * f(63)</v>
       </c>
       <c r="AN26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(39) * f(64)</v>
       </c>
       <c r="AO26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(40) * f(65)</v>
       </c>
       <c r="AP26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(COLUMN()-1 - CTRL!$B$3*(ROW()-1)&lt;0, COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1) &lt;0), "", "f("&amp;COLUMN()-1 - CTRL!$B$3*(ROW()-1) &amp; ") * f("&amp;COLUMN()-1+ROW()-1 - CTRL!$B$3*(ROW()-1)  &amp;")")</f>
         <v>f(41) * f(66)</v>
       </c>
     </row>
@@ -5108,7 +4995,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*2, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*2)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*2, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*2)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1"/>
@@ -5121,7 +5008,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1"/>
@@ -5134,7 +5021,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="4" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*3, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*3)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*3, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*3)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1"/>
@@ -5147,7 +5034,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="5" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*4, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*4)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*4, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*4)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1"/>
@@ -5160,7 +5047,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="6" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*5, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*5)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*5, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*5)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1"/>
@@ -5173,7 +5060,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="7" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*6, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*6)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*6, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*6)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1"/>
@@ -5186,7 +5073,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="1" id="{3C52144C-12A3-4714-8E61-3C4A59C312C0}">
-            <xm:f>ROW()&gt;Sheet2!$B$2</xm:f>
+            <xm:f>ROW()&gt;CTRL!$B$2</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -5205,7 +5092,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="8" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*7, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*7)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*7, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*7)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -5218,7 +5105,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="9" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*8, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*8)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*8, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*8)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -5231,7 +5118,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="10" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*9, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*9)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*9, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*9)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -5244,7 +5131,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="11" id="{9BDBB1EA-FA2E-401C-AC79-FF54FF790089}">
-            <xm:f>AND(COLUMN()-1&lt;Sheet2!$B$1*10, COLUMN()-1+ROW()-1&lt;Sheet2!$B$1*10)</xm:f>
+            <xm:f>AND(COLUMN()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*10, COLUMN()-1+ROW()-1- CTRL!$B$3*(ROW()-1) &lt;CTRL!$B$1*10)</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -5257,13 +5144,15 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="12" id="{E9ECE22B-BFB0-4F6D-A948-BBF6F77FCC2D}">
-            <xm:f>MOD(COLUMN(), Sheet2!$B$1) = 0</xm:f>
+            <xm:f>MOD(COLUMN(), CTRL!$B$1) = 0</xm:f>
             <x14:dxf>
               <font>
                 <color auto="1"/>
               </font>
               <border>
-                <left/>
+                <left style="dotted">
+                  <color auto="1"/>
+                </left>
                 <right style="thin">
                   <color rgb="FFFF0000"/>
                 </right>
@@ -5282,10 +5171,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B250C01A-A0AB-4150-8C13-F79DCA27D1C2}">
-  <dimension ref="A1:B2"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5298,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5308,6 +5198,17 @@
       <c r="B2">
         <v>26</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
